--- a/biology/Zoologie/Falculie_mantelée/Falculie_mantelée.xlsx
+++ b/biology/Zoologie/Falculie_mantelée/Falculie_mantelée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Falculie_mantel%C3%A9e</t>
+          <t>Falculie_mantelée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falculea palliata
 La Falculie mantelée (Falculea palliata) est une espèce de passereau qui est le plus grand représentant de la famille des Vangidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Falculie_mantel%C3%A9e</t>
+          <t>Falculie_mantelée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Falculie mantelée mesure environ 32 cm. Son plumage noir et blanc très contrasté et son long bec (jusqu'à 7 cm) fin et arqué font que cet oiseau ne peut être confondu avec aucun autre. Les parties supérieures du corps et la queue sont noires à reflets bleus. La tête, le cou, les couvertures sous-alaires et les parties inférieures sont blancs. Le bec est gris clair et les iris brun sombre. Les tarses et les doigts forts sont gris bleu pâle.
 Il n'y a pas de dimorphisme sexuel chez cette espèce.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Falculie_mantel%C3%A9e</t>
+          <t>Falculie_mantelée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Langrand O. (1995) Guide des Oiseaux de Madagascar. Delachaux &amp; Niestlé, Lausanne, Paris, 415 p.</t>
         </is>
